--- a/web/excel/reagent_qoldiq.xlsx
+++ b/web/excel/reagent_qoldiq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\OpenServer\domains\soglomdi\web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727485C2-9156-4DB7-BF77-E45CCFAC290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F998FC-0D1B-4D02-9104-85AE6E06DAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="5" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>__-___-____ йил</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
@@ -129,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,29 +136,38 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB3AC86"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FFB3AC86"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB3AC86"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB3AC86"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB3AC86"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB3AC86"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB3AC86"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -173,7 +179,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -182,11 +188,32 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -575,154 +602,92 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="21.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
     <col min="10" max="12" width="21.33203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:13" ht="41.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>

--- a/web/excel/reagent_qoldiq.xlsx
+++ b/web/excel/reagent_qoldiq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\OpenServer\domains\soglomdi\web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F998FC-0D1B-4D02-9104-85AE6E06DAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79A91FB-B50E-4103-ACD8-8A599231B80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -214,6 +214,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -605,7 +620,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -613,9 +628,9 @@
     <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="45.5546875" style="5" customWidth="1"/>
-    <col min="4" max="5" width="21.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="21.33203125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="21.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="17" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" style="17" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
     <col min="10" max="12" width="21.33203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
@@ -625,11 +640,11 @@
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
@@ -637,15 +652,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -655,13 +670,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="41.4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -671,19 +686,19 @@
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="1"/>
@@ -691,5 +706,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>